--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2354827.050840722</v>
+        <v>2459006.685291794</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.8071638495626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883163</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>280.0127134231165</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>37.6770952877671</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.260439114431382</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>174.1088523888113</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>87.62154955555378</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.4771979831548</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>370.0212081709827</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>29.37992230134374</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>52.49565505246928</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>68.57766702465473</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100.58583229927</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.6687625091738</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>37.40501058442996</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.3932148259954</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.45284414232987</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>59.31005804030052</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.1666147997995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3004,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>113.3174219124917</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.78783178799286</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>172.5702346036273</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308158</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367746</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.172675760996</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.384423162752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,25 +4330,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4370,10 +4372,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348092</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.00073137228</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4410,49 +4412,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424835</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218343</v>
@@ -4486,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>638.0458811483703</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>383.3613929424835</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>383.3613929424835</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>383.3613929424835</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.3613929424835</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>785.4918428515828</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>370.4193926965792</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>72.83579230534644</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2006.398526988078</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977088</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977088</v>
+        <v>155.018732144864</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977088</v>
+        <v>155.018732144864</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1964.273285499503</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1595.310768559091</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1237.045069952341</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>851.2568173540967</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>440.2709125644892</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>891.210316624909</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>699.5244324517353</v>
       </c>
       <c r="T10" t="n">
-        <v>778.030634381299</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="U10" t="n">
-        <v>778.030634381299</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="V10" t="n">
-        <v>778.030634381299</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="W10" t="n">
-        <v>778.030634381299</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X10" t="n">
-        <v>550.0410834832817</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.0410834832817</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>304.7988649377482</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5263,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2345.361232772917</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.759767795858</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.684541140056</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.000052934169</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1292.582882897208</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.134540858491</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>2715.159942084666</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>3312.538429711218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>3940.136393265825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4492.046123505112</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1721.508338262028</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.508338262028</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.091168225067</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.30903818352</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>3342.176094240981</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>3173.239911313074</v>
       </c>
       <c r="D31" t="n">
-        <v>550.9217088032285</v>
+        <v>3023.123271900738</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0086152208354</v>
+        <v>2875.210178318345</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.320230820435</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>3523.82455907122</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.530845237133</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309226</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309226</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>375.4748046689422</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>208.2787053838221</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3735.378610145881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3445.96144010892</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3217.971889210903</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>2997.179310067373</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2380.510728238854</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.655893893758</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1978.054428916699</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.979202260897</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1434.29471405501</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>2488.637091092976</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2346.925259935174</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.94647126761411</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>80.44045370237458</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.04089287986332</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.7912595632487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.2568112467073</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11098998263073</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3575234924693689</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>26.97729093373215</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.2291039219411</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5874149221288292</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.83521572366092</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038469</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="N2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687966</v>
@@ -26439,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26451,13 +26453,13 @@
         <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482182</v>
+        <v>-893968.0587482187</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793739</v>
+        <v>434776.6869793735</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793739</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216126</v>
+        <v>183566.9831216129</v>
       </c>
       <c r="F6" t="n">
+        <v>508979.4449289683</v>
+      </c>
+      <c r="G6" t="n">
+        <v>508979.4449289679</v>
+      </c>
+      <c r="H6" t="n">
         <v>508979.444928968</v>
       </c>
-      <c r="G6" t="n">
-        <v>508979.444928968</v>
-      </c>
-      <c r="H6" t="n">
-        <v>508979.4449289683</v>
-      </c>
       <c r="I6" t="n">
-        <v>508979.444928968</v>
+        <v>508979.4449289682</v>
       </c>
       <c r="J6" t="n">
-        <v>291448.2425316905</v>
+        <v>291448.2425316906</v>
       </c>
       <c r="K6" t="n">
-        <v>508979.4449289681</v>
+        <v>508979.4449289679</v>
       </c>
       <c r="L6" t="n">
         <v>508979.4449289679</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934562</v>
+        <v>423924.4169934561</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.4449289681</v>
+        <v>508979.4449289682</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.444928968</v>
+        <v>508979.4449289679</v>
       </c>
       <c r="P6" t="n">
         <v>508979.4449289682</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26792,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>6.199124782496369</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>180.9075580643277</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>35.31649065849454</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>195.6222482896577</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>85.06478763769904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>130.963103796541</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.2566436803258</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>40.90051748247078</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>59.55223036870358</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.0532942236999</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32318,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32795,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>334.769386094615</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33196,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143577</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33977,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34450,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597635</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>91.80490927281524</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35966,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36443,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802847</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>171.2123056344834</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459006.685291794</v>
+        <v>2454994.075277801</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114932</v>
+        <v>9265927.202114934</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.66221878632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.6770952877671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>6.260439114431382</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>325.9262959628992</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>94.57983363107959</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.62154955555378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>370.0212081709827</v>
+        <v>269.2562275335322</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.37992230134374</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68.57766702465473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.55695577161149</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>8.616048582069491</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6687625091738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>162.3413016667496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.40501058442996</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>98.45284414232987</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.1666147997995</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.97191586387646</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>113.3174219124917</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456153</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5702346036273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788180832</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4357,22 +4357,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574645</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581602</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C5" t="n">
-        <v>1196.47774764119</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D5" t="n">
-        <v>1196.47774764119</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E5" t="n">
-        <v>1196.47774764119</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>785.4918428515828</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>370.4193926965792</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>72.83579230534644</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2301.503308295926</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>1928.037550034846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645724</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>444.4359021818246</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>155.018732144864</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>155.018732144864</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499503</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.310768559091</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.045069952341</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E8" t="n">
-        <v>851.2568173540967</v>
+        <v>791.4709073899305</v>
       </c>
       <c r="F8" t="n">
-        <v>440.2709125644892</v>
+        <v>380.485002600323</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539437</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563625</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>891.210316624909</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>699.5244324517353</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,28 +5041,28 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>599.6019060180517</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>451.6888124356586</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>304.7988649377482</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.601903741512</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109956</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2342.134540858491</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2122.533075881433</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.45784922563</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.773361019743</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.356190982783</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1061.366640084765</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412353</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.176094240981</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.239911313074</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.123271900738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.210178318345</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.320230820435</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.61713821475</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3523.82455907122</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>989.3306680894883</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>820.3944851615814</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D34" t="n">
-        <v>670.2778457492457</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E34" t="n">
-        <v>522.3647521668526</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>375.4748046689422</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>208.2787053838221</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1170.979132919728</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2272.649715293768</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.574488637966</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1728.890000432079</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.472830395119</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2488.637091092976</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2346.925259935174</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>96.94647126761411</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>39.70888054695404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>45.04089287986332</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>143.6212754172146</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3575234924693689</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.4620467826927</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.97729093373215</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.5113759375333</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038469</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.6400068796</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,16 +26450,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482187</v>
+        <v>-893968.0587482189</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793735</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216129</v>
+        <v>183219.6038672558</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289683</v>
+        <v>508632.0656746113</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.0656746108</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.0656746113</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.4449289682</v>
+        <v>508632.065674611</v>
       </c>
       <c r="J6" t="n">
-        <v>291448.2425316906</v>
+        <v>291100.8632773336</v>
       </c>
       <c r="K6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="L6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934561</v>
+        <v>423577.0377390991</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.4449289682</v>
+        <v>508632.065674611</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.065674611</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.4449289682</v>
+        <v>508632.065674611</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.9075580643277</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>35.31649065849454</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>23.31467275451377</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>85.2521465508577</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.963103796541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>40.90051748247078</v>
+        <v>141.6654981199213</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>59.55223036870358</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454994.075277801</v>
+        <v>2456754.605580586</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114934</v>
+        <v>9265927.202114932</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>94.00928821139618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>325.9262959628992</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.57983363107959</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>94.08066068263962</v>
       </c>
       <c r="G8" t="n">
-        <v>269.2562275335322</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>41.55695577161149</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.616048582069491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>232.6961289392736</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2374,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30.97191586387646</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4479,61 +4479,61 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.298377994912</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C5" t="n">
-        <v>782.3358610545008</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="D5" t="n">
-        <v>424.0701624477504</v>
+        <v>1327.109847509767</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2301.503308295926</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.037550034846</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.898218059034</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535337</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594925</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988175</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="E8" t="n">
-        <v>791.4709073899305</v>
+        <v>172.5751329332875</v>
       </c>
       <c r="F8" t="n">
-        <v>380.485002600323</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,7 +5114,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273905</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5846,7 +5846,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6469,10 +6469,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429802</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7785,22 +7785,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.70888054695404</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>115.4620467826927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597551</v>
@@ -26337,7 +26337,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26355,7 +26355,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26438,7 +26438,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482189</v>
+        <v>-893968.0587482182</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793735</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793743</v>
       </c>
       <c r="E6" t="n">
-        <v>183219.6038672558</v>
+        <v>183532.2451961767</v>
       </c>
       <c r="F6" t="n">
-        <v>508632.0656746113</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="G6" t="n">
-        <v>508632.0656746108</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="H6" t="n">
-        <v>508632.0656746113</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="I6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="J6" t="n">
-        <v>291100.8632773336</v>
+        <v>291413.5046062549</v>
       </c>
       <c r="K6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="L6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="M6" t="n">
-        <v>423577.0377390991</v>
+        <v>423889.6790680204</v>
       </c>
       <c r="N6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="O6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="P6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035323</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,22 +26962,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022924</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351646</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>287.9210818608656</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>23.31467275451377</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.2521465508577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>312.7953850590718</v>
       </c>
       <c r="G8" t="n">
-        <v>141.6654981199213</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37560,7 +37560,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
